--- a/ProcessedData/ArcPro_export/edit/gavi-up_XWD_export_eledata_EDIT.xlsx
+++ b/ProcessedData/ArcPro_export/edit/gavi-up_XWD_export_eledata_EDIT.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Documents/Ecuador2021/ProcessedData/ArcPro_export/edit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2021/ProcessedData/ArcPro_export/edit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{5307ED40-90B8-4A38-B8D4-BF279796D805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC31FC71-7B2B-4DF9-AE55-F7DACB6A3A4A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21371DDD-7249-844D-B653-772F9554A257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="225" windowWidth="22110" windowHeight="14625" xr2:uid="{4D9AB87D-243C-4EF9-A2F7-4DFDC1700D08}"/>
+    <workbookView xWindow="11140" yWindow="2660" windowWidth="22620" windowHeight="15180" activeTab="1" xr2:uid="{4D9AB87D-243C-4EF9-A2F7-4DFDC1700D08}"/>
   </bookViews>
   <sheets>
     <sheet name="gaviUP_dmt_extractvalues" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="68">
   <si>
     <t>lat_fit</t>
   </si>
@@ -234,13 +235,16 @@
   </si>
   <si>
     <t>new</t>
+  </si>
+  <si>
+    <t>Q_m3s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -250,16 +254,22 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -288,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -296,6 +306,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,20 +647,20 @@
   </sheetPr>
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="16" customWidth="1"/>
-    <col min="6" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="19" width="17.5703125" customWidth="1"/>
+    <col min="6" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="19" width="17.5" customWidth="1"/>
     <col min="20" max="20" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +728,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>-0.32634371079254199</v>
       </c>
@@ -770,7 +782,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>-0.32610071079254199</v>
       </c>
@@ -824,7 +836,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>-0.32602871079254198</v>
       </c>
@@ -878,7 +890,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>-0.32577971079254198</v>
       </c>
@@ -932,7 +944,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>-0.32573971079254199</v>
       </c>
@@ -986,7 +998,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>-0.32562171079254199</v>
       </c>
@@ -1040,7 +1052,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>-0.32540671079254202</v>
       </c>
@@ -1094,7 +1106,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>-0.32534771079254199</v>
       </c>
@@ -1148,7 +1160,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>-0.32510171079254202</v>
       </c>
@@ -1202,7 +1214,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>-0.32509671079254199</v>
       </c>
@@ -1256,7 +1268,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>-0.32482071079254199</v>
       </c>
@@ -1310,7 +1322,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>-0.32466971079254198</v>
       </c>
@@ -1364,7 +1376,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>-0.324359710792542</v>
       </c>
@@ -1418,7 +1430,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>-0.324216710792542</v>
       </c>
@@ -1472,7 +1484,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>-0.324944710792542</v>
       </c>
@@ -1520,7 +1532,7 @@
         <v>4128.76611328125</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>-0.32495271079254201</v>
       </c>
@@ -1566,7 +1578,7 @@
         <v>4128.33544921875</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>-0.324967710792542</v>
       </c>
@@ -1614,7 +1626,7 @@
         <v>4128.33544921875</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>-0.32510971079254197</v>
       </c>
@@ -1662,7 +1674,7 @@
         <v>4126.4736328125</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>-0.32511871079254201</v>
       </c>
@@ -1710,7 +1722,7 @@
         <v>4126.4736328125</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>-0.32512871079254202</v>
       </c>
@@ -1758,7 +1770,7 @@
         <v>4126.4736328125</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>-0.32514771079254201</v>
       </c>
@@ -1806,7 +1818,7 @@
         <v>4126.3017578125</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>-0.32523171079254198</v>
       </c>
@@ -1854,7 +1866,7 @@
         <v>4125.42578125</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>-0.32525471079254198</v>
       </c>
@@ -1902,7 +1914,7 @@
         <v>4124.78662109375</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>-0.32547471079254198</v>
       </c>
@@ -1950,7 +1962,7 @@
         <v>4116.79443359375</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>-0.32551171079254199</v>
       </c>
@@ -1998,7 +2010,7 @@
         <v>4115.7099609375</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>-0.32553971079254201</v>
       </c>
@@ -2046,7 +2058,7 @@
         <v>4114.64404296875</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>-0.325556710792542</v>
       </c>
@@ -2094,7 +2106,7 @@
         <v>4113.59765625</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>-0.325695710792542</v>
       </c>
@@ -2142,7 +2154,7 @@
         <v>4108.7470703125</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>-0.32571571079254202</v>
       </c>
@@ -2190,7 +2202,7 @@
         <v>4108.0341796875</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>-0.324197710792542</v>
       </c>
@@ -2238,7 +2250,7 @@
         <v>4136.46484375</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>-0.32423771079254199</v>
       </c>
@@ -2292,7 +2304,7 @@
         <v>0.14997651305379747</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>-0.32431471079254198</v>
       </c>
@@ -2346,7 +2358,7 @@
         <v>8.0322265625E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>-0.32439271079254201</v>
       </c>
@@ -2400,7 +2412,7 @@
         <v>1.8505859375000003E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>-0.32446871079254203</v>
       </c>
@@ -2454,7 +2466,7 @@
         <v>3.2397460937500004E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>-0.32454371079254202</v>
       </c>
@@ -2508,7 +2520,7 @@
         <v>4.5629882812500001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>-0.324583710792542</v>
       </c>
@@ -2562,7 +2574,7 @@
         <v>5.2172851562499997E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>-0.32462371079254199</v>
       </c>
@@ -2618,7 +2630,7 @@
         <v>4.0283203125E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>-0.324664710792542</v>
       </c>
@@ -2672,7 +2684,7 @@
         <v>4.0283203125E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>-0.32470571079254201</v>
       </c>
@@ -2726,7 +2738,7 @@
         <v>4.6296037946428559E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>-0.324944710792542</v>
       </c>
@@ -2780,7 +2792,7 @@
         <v>6.14287162739071E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>-0.32507271079254202</v>
       </c>
@@ -2836,7 +2848,7 @@
         <v>0.1232177734375</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>-0.325137710792542</v>
       </c>
@@ -2892,7 +2904,7 @@
         <v>9.2889694940476122E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>-0.325216710792542</v>
       </c>
@@ -2946,7 +2958,7 @@
         <v>0.115673828125</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>-0.32529271079254202</v>
       </c>
@@ -3000,7 +3012,7 @@
         <v>0.22028808593749999</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>-0.32536971079254201</v>
       </c>
@@ -3054,7 +3066,7 @@
         <v>0.30500488281249999</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>-0.32544971079254198</v>
       </c>
@@ -3108,7 +3120,7 @@
         <v>0.31879882812499999</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>-0.32553171079254201</v>
       </c>
@@ -3162,7 +3174,7 @@
         <v>0.31748046875000002</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>-0.32561371079254198</v>
       </c>
@@ -3216,7 +3228,7 @@
         <v>0.29484863281250001</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>-0.32569471079254197</v>
       </c>
@@ -3270,7 +3282,7 @@
         <v>0.22934570312499999</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>-0.325776710792542</v>
       </c>
@@ -3325,4 +3337,2396 @@
     <oddFooter>&amp;F</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D214491C-2479-7941-B7D0-4EDC59CDCC45}">
+  <dimension ref="A1:X51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M29" workbookViewId="0">
+      <selection activeCell="S51" sqref="S51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-0.324197710792542</v>
+      </c>
+      <c r="B2">
+        <v>-78.199592039205498</v>
+      </c>
+      <c r="C2">
+        <v>4150.4607471293202</v>
+      </c>
+      <c r="D2">
+        <v>0.60239254588111601</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2">
+        <v>4136.46484375</v>
+      </c>
+      <c r="W2" s="6">
+        <f>20/100*13/100*0.03</f>
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="X2" s="6"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-0.324216710792542</v>
+      </c>
+      <c r="B3">
+        <v>-78.199604307896806</v>
+      </c>
+      <c r="C3">
+        <v>4148.7802539682098</v>
+      </c>
+      <c r="D3">
+        <v>3.12848886199885</v>
+      </c>
+      <c r="H3" s="4">
+        <v>44377</v>
+      </c>
+      <c r="I3">
+        <v>0.09</v>
+      </c>
+      <c r="J3">
+        <v>566.48820377183097</v>
+      </c>
+      <c r="K3">
+        <v>8.7370000000000001</v>
+      </c>
+      <c r="L3">
+        <v>0.2291</v>
+      </c>
+      <c r="M3">
+        <v>8.15625</v>
+      </c>
+      <c r="N3">
+        <v>62.362200000000001</v>
+      </c>
+      <c r="O3">
+        <v>6.7859999999999996</v>
+      </c>
+      <c r="P3">
+        <v>626.11040000000003</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" s="6"/>
+    </row>
+    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-0.32423771079254199</v>
+      </c>
+      <c r="B4">
+        <v>-78.199610550139397</v>
+      </c>
+      <c r="C4">
+        <v>4147.2390396567898</v>
+      </c>
+      <c r="D4">
+        <v>5.6044642289420699</v>
+      </c>
+      <c r="E4">
+        <v>5.8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4">
+        <v>4135.58642578125</v>
+      </c>
+      <c r="U4">
+        <v>15.8</v>
+      </c>
+      <c r="V4">
+        <v>0.14997651305379747</v>
+      </c>
+      <c r="W4" s="6"/>
+    </row>
+    <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-0.32431471079254198</v>
+      </c>
+      <c r="B5">
+        <v>-78.199606667830906</v>
+      </c>
+      <c r="C5">
+        <v>4142.4816896441898</v>
+      </c>
+      <c r="D5">
+        <v>14.228725751461001</v>
+      </c>
+      <c r="E5">
+        <v>15.8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5">
+        <v>4134.09521484375</v>
+      </c>
+      <c r="U5">
+        <v>20</v>
+      </c>
+      <c r="V5">
+        <v>8.0322265625E-2</v>
+      </c>
+      <c r="W5" s="6"/>
+    </row>
+    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-0.324359710792542</v>
+      </c>
+      <c r="B6">
+        <v>-78.199603949949406</v>
+      </c>
+      <c r="C6">
+        <v>4140.1943620982702</v>
+      </c>
+      <c r="D6">
+        <v>19.205301613763201</v>
+      </c>
+      <c r="H6" s="4">
+        <v>44376</v>
+      </c>
+      <c r="I6">
+        <v>1.22</v>
+      </c>
+      <c r="J6">
+        <v>1556.6974436036901</v>
+      </c>
+      <c r="K6">
+        <v>4.093</v>
+      </c>
+      <c r="L6">
+        <v>0.13370000000000001</v>
+      </c>
+      <c r="M6">
+        <v>7.8257500000000002</v>
+      </c>
+      <c r="N6">
+        <v>62.465400000000002</v>
+      </c>
+      <c r="O6">
+        <v>7.1959999999999997</v>
+      </c>
+      <c r="P6">
+        <v>627.14239999999995</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W6" s="6"/>
+    </row>
+    <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-0.32439271079254201</v>
+      </c>
+      <c r="B7">
+        <v>-78.199605574770999</v>
+      </c>
+      <c r="C7">
+        <v>4138.7478454452603</v>
+      </c>
+      <c r="D7">
+        <v>22.852987273979799</v>
+      </c>
+      <c r="E7">
+        <v>25.8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7">
+        <v>4133.97998046875</v>
+      </c>
+      <c r="U7">
+        <v>19.999999999999996</v>
+      </c>
+      <c r="V7">
+        <v>1.8505859375000003E-2</v>
+      </c>
+      <c r="W7" s="6"/>
+    </row>
+    <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-0.32446871079254203</v>
+      </c>
+      <c r="B8">
+        <v>-78.199619741614796</v>
+      </c>
+      <c r="C8">
+        <v>4136.0938002574703</v>
+      </c>
+      <c r="D8">
+        <v>31.477248796498699</v>
+      </c>
+      <c r="E8">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8">
+        <v>4133.72509765625</v>
+      </c>
+      <c r="U8">
+        <v>19.999999999999996</v>
+      </c>
+      <c r="V8">
+        <v>3.2397460937500004E-2</v>
+      </c>
+      <c r="W8" s="6"/>
+    </row>
+    <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>-0.32454371079254202</v>
+      </c>
+      <c r="B9">
+        <v>-78.199638368131005</v>
+      </c>
+      <c r="C9">
+        <v>4134.4209234132004</v>
+      </c>
+      <c r="D9">
+        <v>40.101510319017599</v>
+      </c>
+      <c r="E9">
+        <v>45.8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9">
+        <v>4133.33203125</v>
+      </c>
+      <c r="U9">
+        <v>20</v>
+      </c>
+      <c r="V9">
+        <v>4.5629882812500001E-2</v>
+      </c>
+      <c r="W9" s="6"/>
+    </row>
+    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>-0.324583710792542</v>
+      </c>
+      <c r="B10">
+        <v>-78.199645954613302</v>
+      </c>
+      <c r="C10">
+        <v>4133.9137453932299</v>
+      </c>
+      <c r="D10">
+        <v>44.629264812038102</v>
+      </c>
+      <c r="E10">
+        <v>55.8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10">
+        <v>4132.8125</v>
+      </c>
+      <c r="U10">
+        <v>20</v>
+      </c>
+      <c r="V10">
+        <v>5.2172851562499997E-2</v>
+      </c>
+      <c r="W10" s="6"/>
+    </row>
+    <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>-0.32462371079254199</v>
+      </c>
+      <c r="B11">
+        <v>-78.199650301474193</v>
+      </c>
+      <c r="C11">
+        <v>4133.8692815323602</v>
+      </c>
+      <c r="D11">
+        <v>49.157019305058697</v>
+      </c>
+      <c r="E11">
+        <v>65.8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11">
+        <v>4132.28857421875</v>
+      </c>
+      <c r="U11">
+        <v>20</v>
+      </c>
+      <c r="V11">
+        <v>4.0283203125E-2</v>
+      </c>
+      <c r="W11" s="6"/>
+    </row>
+    <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>-0.324664710792542</v>
+      </c>
+      <c r="B12">
+        <v>-78.199650870781994</v>
+      </c>
+      <c r="C12">
+        <v>4134.2974580420296</v>
+      </c>
+      <c r="D12">
+        <v>53.684773798079199</v>
+      </c>
+      <c r="E12">
+        <v>75.8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+      <c r="T12">
+        <v>4132.0068359375</v>
+      </c>
+      <c r="U12">
+        <v>20</v>
+      </c>
+      <c r="V12">
+        <v>4.0283203125E-2</v>
+      </c>
+      <c r="W12" s="6"/>
+    </row>
+    <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>-0.32466971079254198</v>
+      </c>
+      <c r="B13">
+        <v>-78.199650669636995</v>
+      </c>
+      <c r="C13">
+        <v>4134.3702579335104</v>
+      </c>
+      <c r="D13">
+        <v>54.238391581920503</v>
+      </c>
+      <c r="H13" s="4">
+        <v>44377</v>
+      </c>
+      <c r="I13">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="J13">
+        <v>788.70325897073803</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13">
+        <v>8.2104999999999997</v>
+      </c>
+      <c r="N13">
+        <v>62.376399999999997</v>
+      </c>
+      <c r="O13">
+        <v>6.8010000000000002</v>
+      </c>
+      <c r="P13">
+        <v>626.25239999999997</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>64</v>
+      </c>
+      <c r="R13" t="s">
+        <v>65</v>
+      </c>
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>-0.32470571079254201</v>
+      </c>
+      <c r="B14">
+        <v>-78.199647604488305</v>
+      </c>
+      <c r="C14">
+        <v>4134.9541140408901</v>
+      </c>
+      <c r="D14">
+        <v>58.212528291099702</v>
+      </c>
+      <c r="E14">
+        <v>85.8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T14">
+        <v>4131.48291015625</v>
+      </c>
+      <c r="U14">
+        <v>70.000000000000014</v>
+      </c>
+      <c r="V14">
+        <v>4.6296037946428559E-2</v>
+      </c>
+      <c r="W14" s="6"/>
+    </row>
+    <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>-0.32482071079254199</v>
+      </c>
+      <c r="B15">
+        <v>-78.199624762168995</v>
+      </c>
+      <c r="C15">
+        <v>4135.9262717326901</v>
+      </c>
+      <c r="D15">
+        <v>71.320384361300995</v>
+      </c>
+      <c r="H15" s="4">
+        <v>44376</v>
+      </c>
+      <c r="I15">
+        <v>2.605</v>
+      </c>
+      <c r="J15">
+        <v>1111.94430211292</v>
+      </c>
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <v>7.8905000000000003</v>
+      </c>
+      <c r="N15">
+        <v>62.462400000000002</v>
+      </c>
+      <c r="O15">
+        <v>7.1959999999999997</v>
+      </c>
+      <c r="P15">
+        <v>627.11239999999998</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>66</v>
+      </c>
+      <c r="R15" t="s">
+        <v>65</v>
+      </c>
+      <c r="W15" s="6"/>
+    </row>
+    <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>-0.324944710792542</v>
+      </c>
+      <c r="B16">
+        <v>-78.199601318280202</v>
+      </c>
+      <c r="C16">
+        <v>4135.1108608214699</v>
+      </c>
+      <c r="D16">
+        <v>85.3337777042927</v>
+      </c>
+      <c r="E16">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T16">
+        <v>4128.76611328125</v>
+      </c>
+      <c r="W16" s="6"/>
+    </row>
+    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>-0.324944710792542</v>
+      </c>
+      <c r="B17">
+        <v>-78.199601318280202</v>
+      </c>
+      <c r="C17">
+        <v>4135.1108608214699</v>
+      </c>
+      <c r="D17">
+        <v>85.379055249222901</v>
+      </c>
+      <c r="E17">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+      <c r="T17">
+        <v>4128.76611328125</v>
+      </c>
+      <c r="U17">
+        <v>73.2</v>
+      </c>
+      <c r="V17">
+        <v>6.14287162739071E-2</v>
+      </c>
+      <c r="W17" s="6"/>
+    </row>
+    <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>-0.32495271079254201</v>
+      </c>
+      <c r="B18">
+        <v>-78.199600549787903</v>
+      </c>
+      <c r="C18">
+        <v>4134.9692104052001</v>
+      </c>
+      <c r="D18">
+        <v>86.273718935957106</v>
+      </c>
+      <c r="E18">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" t="s">
+        <v>14</v>
+      </c>
+      <c r="T18">
+        <v>4128.33544921875</v>
+      </c>
+      <c r="W18" s="6"/>
+    </row>
+    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>-0.324967710792542</v>
+      </c>
+      <c r="B19">
+        <v>-78.199599446092705</v>
+      </c>
+      <c r="C19">
+        <v>4134.6829865653899</v>
+      </c>
+      <c r="D19">
+        <v>87.948086514677399</v>
+      </c>
+      <c r="E19">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" t="s">
+        <v>14</v>
+      </c>
+      <c r="S19" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19">
+        <v>4128.33544921875</v>
+      </c>
+      <c r="W19" s="6"/>
+    </row>
+    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>-0.32507271079254202</v>
+      </c>
+      <c r="B20">
+        <v>-78.199605054399399</v>
+      </c>
+      <c r="C20">
+        <v>4132.4258252219997</v>
+      </c>
+      <c r="D20">
+        <v>99.677822690913601</v>
+      </c>
+      <c r="E20">
+        <v>159</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" t="s">
+        <v>14</v>
+      </c>
+      <c r="S20" t="s">
+        <v>37</v>
+      </c>
+      <c r="T20">
+        <v>4126.986328125</v>
+      </c>
+      <c r="U20">
+        <v>20</v>
+      </c>
+      <c r="V20">
+        <v>0.1232177734375</v>
+      </c>
+      <c r="W20" s="6"/>
+    </row>
+    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>-0.32509671079254199</v>
+      </c>
+      <c r="B21">
+        <v>-78.199609552792694</v>
+      </c>
+      <c r="C21">
+        <v>4132.0149248787402</v>
+      </c>
+      <c r="D21">
+        <v>102.39623234791</v>
+      </c>
+      <c r="H21" s="4">
+        <v>44377</v>
+      </c>
+      <c r="I21">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="J21">
+        <v>619.02299797298303</v>
+      </c>
+      <c r="K21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21">
+        <v>8.5077499999999997</v>
+      </c>
+      <c r="N21">
+        <v>62.377800000000001</v>
+      </c>
+      <c r="O21">
+        <v>6.8289999999999997</v>
+      </c>
+      <c r="P21">
+        <v>626.26639999999998</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>64</v>
+      </c>
+      <c r="R21" t="s">
+        <v>65</v>
+      </c>
+      <c r="W21" s="6"/>
+    </row>
+    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>-0.32510171079254202</v>
+      </c>
+      <c r="B22">
+        <v>-78.199610624289093</v>
+      </c>
+      <c r="C22">
+        <v>4131.94206013451</v>
+      </c>
+      <c r="D22">
+        <v>102.965468227982</v>
+      </c>
+      <c r="H22" s="4">
+        <v>44376</v>
+      </c>
+      <c r="I22">
+        <v>0.105</v>
+      </c>
+      <c r="J22">
+        <v>1215.55054841169</v>
+      </c>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22">
+        <v>8.0465</v>
+      </c>
+      <c r="N22">
+        <v>62.459400000000002</v>
+      </c>
+      <c r="O22">
+        <v>7.1980000000000004</v>
+      </c>
+      <c r="P22">
+        <v>627.08240000000001</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>66</v>
+      </c>
+      <c r="R22" t="s">
+        <v>65</v>
+      </c>
+      <c r="W22" s="6"/>
+    </row>
+    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>-0.32510971079254197</v>
+      </c>
+      <c r="B23">
+        <v>-78.1996124294905</v>
+      </c>
+      <c r="C23">
+        <v>4131.8270322956996</v>
+      </c>
+      <c r="D23">
+        <v>103.85482039105599</v>
+      </c>
+      <c r="E23">
+        <v>162.80000000000001</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" t="s">
+        <v>14</v>
+      </c>
+      <c r="S23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T23">
+        <v>4126.4736328125</v>
+      </c>
+      <c r="W23" s="6"/>
+    </row>
+    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>-0.32511871079254201</v>
+      </c>
+      <c r="B24">
+        <v>-78.199614588533095</v>
+      </c>
+      <c r="C24">
+        <v>4131.69284864565</v>
+      </c>
+      <c r="D24">
+        <v>104.954030312146</v>
+      </c>
+      <c r="E24">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" t="s">
+        <v>14</v>
+      </c>
+      <c r="S24" t="s">
+        <v>38</v>
+      </c>
+      <c r="T24">
+        <v>4126.4736328125</v>
+      </c>
+      <c r="W24" s="6"/>
+    </row>
+    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>-0.32512871079254202</v>
+      </c>
+      <c r="B25">
+        <v>-78.199617137892105</v>
+      </c>
+      <c r="C25">
+        <v>4131.52686843626</v>
+      </c>
+      <c r="D25">
+        <v>106.05324023323701</v>
+      </c>
+      <c r="E25">
+        <v>164.8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" t="s">
+        <v>14</v>
+      </c>
+      <c r="S25" t="s">
+        <v>40</v>
+      </c>
+      <c r="T25">
+        <v>4126.4736328125</v>
+      </c>
+      <c r="W25" s="6"/>
+    </row>
+    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>-0.325137710792542</v>
+      </c>
+      <c r="B26">
+        <v>-78.199619558984693</v>
+      </c>
+      <c r="C26">
+        <v>4131.3884901010797</v>
+      </c>
+      <c r="D26">
+        <v>107.152450154327</v>
+      </c>
+      <c r="E26">
+        <v>165.8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" t="s">
+        <v>14</v>
+      </c>
+      <c r="S26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26">
+        <v>4126.3017578125</v>
+      </c>
+      <c r="U26">
+        <v>16.800000000000011</v>
+      </c>
+      <c r="V26">
+        <v>9.2889694940476122E-2</v>
+      </c>
+      <c r="W26" s="6"/>
+    </row>
+    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>-0.32514771079254201</v>
+      </c>
+      <c r="B27">
+        <v>-78.199622379221793</v>
+      </c>
+      <c r="C27">
+        <v>4131.2827449137503</v>
+      </c>
+      <c r="D27">
+        <v>108.25166007541701</v>
+      </c>
+      <c r="E27">
+        <v>166.8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" t="s">
+        <v>14</v>
+      </c>
+      <c r="S27" t="s">
+        <v>44</v>
+      </c>
+      <c r="T27">
+        <v>4126.3017578125</v>
+      </c>
+      <c r="W27" s="6"/>
+    </row>
+    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>-0.325216710792542</v>
+      </c>
+      <c r="B28">
+        <v>-78.199644547828896</v>
+      </c>
+      <c r="C28">
+        <v>4129.6700652879599</v>
+      </c>
+      <c r="D28">
+        <v>116.299443426824</v>
+      </c>
+      <c r="E28">
+        <v>175.8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" t="s">
+        <v>14</v>
+      </c>
+      <c r="T28">
+        <v>4125.42578125</v>
+      </c>
+      <c r="U28">
+        <v>20</v>
+      </c>
+      <c r="V28">
+        <v>0.115673828125</v>
+      </c>
+      <c r="W28" s="6"/>
+    </row>
+    <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>-0.32523171079254198</v>
+      </c>
+      <c r="B29">
+        <v>-78.199649722814698</v>
+      </c>
+      <c r="C29">
+        <v>4129.1238672314103</v>
+      </c>
+      <c r="D29">
+        <v>118.08783972713699</v>
+      </c>
+      <c r="E29">
+        <v>177.8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" t="s">
+        <v>14</v>
+      </c>
+      <c r="S29" t="s">
+        <v>38</v>
+      </c>
+      <c r="T29">
+        <v>4125.42578125</v>
+      </c>
+      <c r="W29" s="6"/>
+    </row>
+    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>-0.32525471079254198</v>
+      </c>
+      <c r="B30">
+        <v>-78.199657684186604</v>
+      </c>
+      <c r="C30">
+        <v>4128.1575392771902</v>
+      </c>
+      <c r="D30">
+        <v>120.77043417760601</v>
+      </c>
+      <c r="E30">
+        <v>180.8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" t="s">
+        <v>14</v>
+      </c>
+      <c r="S30" t="s">
+        <v>38</v>
+      </c>
+      <c r="T30">
+        <v>4124.78662109375</v>
+      </c>
+      <c r="W30" s="6"/>
+    </row>
+    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>-0.32529271079254202</v>
+      </c>
+      <c r="B31">
+        <v>-78.1996705021607</v>
+      </c>
+      <c r="C31">
+        <v>4125.9187529947203</v>
+      </c>
+      <c r="D31">
+        <v>125.241424928388</v>
+      </c>
+      <c r="E31">
+        <v>185.8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" t="s">
+        <v>14</v>
+      </c>
+      <c r="T31">
+        <v>4123.98828125</v>
+      </c>
+      <c r="U31">
+        <v>20</v>
+      </c>
+      <c r="V31">
+        <v>0.22028808593749999</v>
+      </c>
+      <c r="W31" s="6"/>
+    </row>
+    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>-0.32534771079254199</v>
+      </c>
+      <c r="B32">
+        <v>-78.199687071271896</v>
+      </c>
+      <c r="C32">
+        <v>4122.5426753966603</v>
+      </c>
+      <c r="D32">
+        <v>131.65543626911901</v>
+      </c>
+      <c r="H32" s="4">
+        <v>44376</v>
+      </c>
+      <c r="I32">
+        <v>0.54</v>
+      </c>
+      <c r="J32">
+        <v>921.98105267230801</v>
+      </c>
+      <c r="K32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32">
+        <v>8.1617499999999996</v>
+      </c>
+      <c r="N32">
+        <v>62.4495</v>
+      </c>
+      <c r="O32">
+        <v>7.2</v>
+      </c>
+      <c r="P32">
+        <v>626.98339999999996</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>66</v>
+      </c>
+      <c r="R32" t="s">
+        <v>65</v>
+      </c>
+      <c r="W32" s="6"/>
+    </row>
+    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>-0.32536971079254201</v>
+      </c>
+      <c r="B33">
+        <v>-78.199692699040497</v>
+      </c>
+      <c r="C33">
+        <v>4121.8764606085197</v>
+      </c>
+      <c r="D33">
+        <v>134.18340642995199</v>
+      </c>
+      <c r="E33">
+        <v>195.8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" t="s">
+        <v>14</v>
+      </c>
+      <c r="T33">
+        <v>4121.02001953125</v>
+      </c>
+      <c r="U33">
+        <v>20</v>
+      </c>
+      <c r="V33">
+        <v>0.30500488281249999</v>
+      </c>
+      <c r="W33" s="6"/>
+    </row>
+    <row r="34" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>-0.32540671079254202</v>
+      </c>
+      <c r="B34">
+        <v>-78.199700558877396</v>
+      </c>
+      <c r="C34">
+        <v>4121.7040531726798</v>
+      </c>
+      <c r="D34">
+        <v>138.39465557988501</v>
+      </c>
+      <c r="H34" s="4">
+        <v>44377</v>
+      </c>
+      <c r="I34">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J34">
+        <v>544.08044862191502</v>
+      </c>
+      <c r="K34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34">
+        <v>8.5797500000000007</v>
+      </c>
+      <c r="N34">
+        <v>62.372</v>
+      </c>
+      <c r="O34">
+        <v>6.8280000000000003</v>
+      </c>
+      <c r="P34">
+        <v>626.20839999999998</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>64</v>
+      </c>
+      <c r="R34" t="s">
+        <v>65</v>
+      </c>
+      <c r="W34" s="6"/>
+    </row>
+    <row r="35" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>-0.32544971079254198</v>
+      </c>
+      <c r="B35">
+        <v>-78.199706931688894</v>
+      </c>
+      <c r="C35">
+        <v>4121.1780602850404</v>
+      </c>
+      <c r="D35">
+        <v>143.28470557515899</v>
+      </c>
+      <c r="E35">
+        <v>205.8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" t="s">
+        <v>14</v>
+      </c>
+      <c r="T35">
+        <v>4117.88818359375</v>
+      </c>
+      <c r="U35">
+        <v>20</v>
+      </c>
+      <c r="V35">
+        <v>0.31879882812499999</v>
+      </c>
+      <c r="W35" s="6"/>
+    </row>
+    <row r="36" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>-0.32547471079254198</v>
+      </c>
+      <c r="B36">
+        <v>-78.199709250434907</v>
+      </c>
+      <c r="C36">
+        <v>4120.5646480136902</v>
+      </c>
+      <c r="D36">
+        <v>146.015095318721</v>
+      </c>
+      <c r="E36">
+        <v>208.8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" t="s">
+        <v>14</v>
+      </c>
+      <c r="S36" t="s">
+        <v>38</v>
+      </c>
+      <c r="T36">
+        <v>4116.79443359375</v>
+      </c>
+      <c r="W36" s="6"/>
+    </row>
+    <row r="37" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>-0.32551171079254199</v>
+      </c>
+      <c r="B37">
+        <v>-78.199710931209097</v>
+      </c>
+      <c r="C37">
+        <v>4119.1829219002202</v>
+      </c>
+      <c r="D37">
+        <v>150.11067993406499</v>
+      </c>
+      <c r="E37">
+        <v>213.3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" t="s">
+        <v>14</v>
+      </c>
+      <c r="S37" t="s">
+        <v>38</v>
+      </c>
+      <c r="T37">
+        <v>4115.7099609375</v>
+      </c>
+      <c r="W37" s="6"/>
+    </row>
+    <row r="38" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>-0.32553171079254201</v>
+      </c>
+      <c r="B38">
+        <v>-78.199711065709096</v>
+      </c>
+      <c r="C38">
+        <v>4118.3422768198898</v>
+      </c>
+      <c r="D38">
+        <v>152.386004720366</v>
+      </c>
+      <c r="E38">
+        <v>215.8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" t="s">
+        <v>14</v>
+      </c>
+      <c r="T38">
+        <v>4114.64404296875</v>
+      </c>
+      <c r="U38">
+        <v>20</v>
+      </c>
+      <c r="V38">
+        <v>0.31748046875000002</v>
+      </c>
+      <c r="W38" s="6"/>
+    </row>
+    <row r="39" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>-0.32553971079254201</v>
+      </c>
+      <c r="B39">
+        <v>-78.199710987629203</v>
+      </c>
+      <c r="C39">
+        <v>4117.9958547981396</v>
+      </c>
+      <c r="D39">
+        <v>153.29613463488701</v>
+      </c>
+      <c r="E39">
+        <v>216.8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" t="s">
+        <v>14</v>
+      </c>
+      <c r="S39" t="s">
+        <v>38</v>
+      </c>
+      <c r="T39">
+        <v>4114.64404296875</v>
+      </c>
+      <c r="W39" s="6"/>
+    </row>
+    <row r="40" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>-0.325556710792542</v>
+      </c>
+      <c r="B40">
+        <v>-78.1997106038243</v>
+      </c>
+      <c r="C40">
+        <v>4117.3966955889</v>
+      </c>
+      <c r="D40">
+        <v>155.116394463929</v>
+      </c>
+      <c r="E40">
+        <v>218.8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" t="s">
+        <v>14</v>
+      </c>
+      <c r="S40" t="s">
+        <v>38</v>
+      </c>
+      <c r="T40">
+        <v>4113.59765625</v>
+      </c>
+      <c r="W40" s="6"/>
+    </row>
+    <row r="41" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>-0.32561371079254198</v>
+      </c>
+      <c r="B41">
+        <v>-78.199707850271693</v>
+      </c>
+      <c r="C41">
+        <v>4115.7301494391904</v>
+      </c>
+      <c r="D41">
+        <v>161.48730386557401</v>
+      </c>
+      <c r="E41">
+        <v>225.8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" t="s">
+        <v>14</v>
+      </c>
+      <c r="T41">
+        <v>4111.53857421875</v>
+      </c>
+      <c r="U41">
+        <v>20</v>
+      </c>
+      <c r="V41">
+        <v>0.29484863281250001</v>
+      </c>
+      <c r="W41" s="6"/>
+    </row>
+    <row r="42" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>-0.32562171079254199</v>
+      </c>
+      <c r="B42">
+        <v>-78.199707378835001</v>
+      </c>
+      <c r="C42">
+        <v>4115.5542782550701</v>
+      </c>
+      <c r="D42">
+        <v>162.408278144001</v>
+      </c>
+      <c r="H42" s="4">
+        <v>44376</v>
+      </c>
+      <c r="I42">
+        <v>0.16</v>
+      </c>
+      <c r="J42">
+        <v>496.54896764953799</v>
+      </c>
+      <c r="K42" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42">
+        <v>8.3384999999999998</v>
+      </c>
+      <c r="N42">
+        <v>62.4499</v>
+      </c>
+      <c r="O42">
+        <v>7.2060000000000004</v>
+      </c>
+      <c r="P42">
+        <v>626.98739999999998</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>66</v>
+      </c>
+      <c r="R42" t="s">
+        <v>65</v>
+      </c>
+      <c r="W42" s="6"/>
+    </row>
+    <row r="43" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>-0.32569471079254197</v>
+      </c>
+      <c r="B43">
+        <v>-78.199704159702904</v>
+      </c>
+      <c r="C43">
+        <v>4114.4741124760303</v>
+      </c>
+      <c r="D43">
+        <v>170.58860301078099</v>
+      </c>
+      <c r="E43">
+        <v>235.8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" t="s">
+        <v>14</v>
+      </c>
+      <c r="T43">
+        <v>4108.7470703125</v>
+      </c>
+      <c r="U43">
+        <v>20</v>
+      </c>
+      <c r="V43">
+        <v>0.22934570312499999</v>
+      </c>
+      <c r="W43" s="6"/>
+    </row>
+    <row r="44" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>-0.325695710792542</v>
+      </c>
+      <c r="B44">
+        <v>-78.199704144991898</v>
+      </c>
+      <c r="C44">
+        <v>4114.4559790188196</v>
+      </c>
+      <c r="D44">
+        <v>170.67961600223299</v>
+      </c>
+      <c r="E44">
+        <v>235.9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" t="s">
+        <v>14</v>
+      </c>
+      <c r="S44" t="s">
+        <v>38</v>
+      </c>
+      <c r="T44">
+        <v>4108.7470703125</v>
+      </c>
+      <c r="W44" s="6"/>
+    </row>
+    <row r="45" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>-0.32571571079254202</v>
+      </c>
+      <c r="B45">
+        <v>-78.199704119061195</v>
+      </c>
+      <c r="C45">
+        <v>4114.0088981905201</v>
+      </c>
+      <c r="D45">
+        <v>172.86392779708299</v>
+      </c>
+      <c r="E45">
+        <v>238.3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45" t="s">
+        <v>14</v>
+      </c>
+      <c r="S45" t="s">
+        <v>38</v>
+      </c>
+      <c r="T45">
+        <v>4108.0341796875</v>
+      </c>
+      <c r="W45" s="6"/>
+    </row>
+    <row r="46" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>-0.32573971079254199</v>
+      </c>
+      <c r="B46">
+        <v>-78.199704877444503</v>
+      </c>
+      <c r="C46">
+        <v>4113.1517945381001</v>
+      </c>
+      <c r="D46">
+        <v>175.55414515079701</v>
+      </c>
+      <c r="H46" s="4">
+        <v>44376</v>
+      </c>
+      <c r="I46">
+        <v>1.91</v>
+      </c>
+      <c r="J46" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46">
+        <v>3.44</v>
+      </c>
+      <c r="L46">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="M46" t="s">
+        <v>14</v>
+      </c>
+      <c r="N46" t="s">
+        <v>14</v>
+      </c>
+      <c r="O46" t="s">
+        <v>14</v>
+      </c>
+      <c r="P46" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>14</v>
+      </c>
+      <c r="R46" t="s">
+        <v>65</v>
+      </c>
+      <c r="W46" s="6"/>
+    </row>
+    <row r="47" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>-0.325776710792542</v>
+      </c>
+      <c r="B47">
+        <v>-78.199708140020903</v>
+      </c>
+      <c r="C47">
+        <v>4111.4729243755601</v>
+      </c>
+      <c r="D47">
+        <v>179.68990215598799</v>
+      </c>
+      <c r="E47">
+        <v>245.8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" s="2"/>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" t="s">
+        <v>14</v>
+      </c>
+      <c r="T47">
+        <v>4106.95166015625</v>
+      </c>
+      <c r="W47" s="6"/>
+    </row>
+    <row r="48" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>-0.32577971079254198</v>
+      </c>
+      <c r="B48">
+        <v>-78.199708530962496</v>
+      </c>
+      <c r="C48">
+        <v>4111.3909660570598</v>
+      </c>
+      <c r="D48">
+        <v>180.02668473703699</v>
+      </c>
+      <c r="H48" s="4">
+        <v>44377</v>
+      </c>
+      <c r="I48">
+        <v>0.09</v>
+      </c>
+      <c r="J48">
+        <v>924.81851833313794</v>
+      </c>
+      <c r="K48" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" t="s">
+        <v>14</v>
+      </c>
+      <c r="M48">
+        <v>8.5274999999999999</v>
+      </c>
+      <c r="N48">
+        <v>62.360199999999999</v>
+      </c>
+      <c r="O48">
+        <v>6.8230000000000004</v>
+      </c>
+      <c r="P48">
+        <v>626.09040000000005</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>64</v>
+      </c>
+      <c r="R48" t="s">
+        <v>65</v>
+      </c>
+      <c r="V48">
+        <f>(4104.28125-4103.271973)/20</f>
+        <v>5.0463850000005549E-2</v>
+      </c>
+      <c r="W48" s="6"/>
+    </row>
+    <row r="49" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>-0.32602871079254198</v>
+      </c>
+      <c r="B49">
+        <v>-78.199814593456793</v>
+      </c>
+      <c r="C49">
+        <v>4110.9582146004004</v>
+      </c>
+      <c r="D49">
+        <v>210.42473430504</v>
+      </c>
+      <c r="H49" s="4">
+        <v>44376</v>
+      </c>
+      <c r="I49">
+        <v>0.61</v>
+      </c>
+      <c r="J49">
+        <v>1407.27990356431</v>
+      </c>
+      <c r="K49" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" t="s">
+        <v>14</v>
+      </c>
+      <c r="M49">
+        <v>8.5322499999999994</v>
+      </c>
+      <c r="N49">
+        <v>62.438400000000001</v>
+      </c>
+      <c r="O49">
+        <v>7.2149999999999999</v>
+      </c>
+      <c r="P49">
+        <v>626.87239999999997</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>66</v>
+      </c>
+      <c r="R49" t="s">
+        <v>65</v>
+      </c>
+      <c r="V49">
+        <f>(4103.271973-4103.271973)/20</f>
+        <v>0</v>
+      </c>
+      <c r="W49" s="6"/>
+    </row>
+    <row r="50" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>-0.32610071079254199</v>
+      </c>
+      <c r="B50">
+        <v>-78.1998589039423</v>
+      </c>
+      <c r="C50">
+        <v>4109.6263644512801</v>
+      </c>
+      <c r="D50">
+        <v>219.83675812116601</v>
+      </c>
+      <c r="H50" s="4">
+        <v>44377</v>
+      </c>
+      <c r="I50">
+        <v>0.43</v>
+      </c>
+      <c r="J50">
+        <v>789.00745683845503</v>
+      </c>
+      <c r="K50">
+        <v>7.9429999999999996</v>
+      </c>
+      <c r="L50">
+        <v>0.2281</v>
+      </c>
+      <c r="M50">
+        <v>8.3127499999999994</v>
+      </c>
+      <c r="N50">
+        <v>62.369799999999998</v>
+      </c>
+      <c r="O50">
+        <v>6.7679999999999998</v>
+      </c>
+      <c r="P50">
+        <v>626.18640000000005</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>64</v>
+      </c>
+      <c r="R50" t="s">
+        <v>65</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50" s="6"/>
+    </row>
+    <row r="51" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>-0.32634371079254199</v>
+      </c>
+      <c r="B51">
+        <v>-78.199875223433196</v>
+      </c>
+      <c r="C51">
+        <v>4107.2071700810802</v>
+      </c>
+      <c r="D51">
+        <v>248.59052985700899</v>
+      </c>
+      <c r="H51" s="4">
+        <v>44377</v>
+      </c>
+      <c r="I51">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="J51">
+        <v>811.60965959922305</v>
+      </c>
+      <c r="K51" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" t="s">
+        <v>14</v>
+      </c>
+      <c r="M51">
+        <v>8.3602500000000006</v>
+      </c>
+      <c r="N51">
+        <v>62.374499999999998</v>
+      </c>
+      <c r="O51">
+        <v>6.8090000000000002</v>
+      </c>
+      <c r="P51">
+        <v>626.23339999999996</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>64</v>
+      </c>
+      <c r="R51" t="s">
+        <v>65</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51" s="6">
+        <v>9.0800000000000006E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V51">
+    <sortCondition ref="D2:D51"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>